--- a/TestData/LV_TMTT0012113_ValidateCoExistFieldForGCATracking.xlsx
+++ b/TestData/LV_TMTT0012113_ValidateCoExistFieldForGCATracking.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vkumar0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{823AB8E8-895E-414A-88FF-AE18B3E42327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D18DA1C5-3C89-4A0D-B477-89FE6DDE9D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6914B0A7-23C8-4C59-8A71-D12BF5352AB3}"/>
+    <workbookView xWindow="-23148" yWindow="708" windowWidth="23256" windowHeight="12456" xr2:uid="{6914B0A7-23C8-4C59-8A71-D12BF5352AB3}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="3" r:id="rId1"/>
@@ -256,9 +256,6 @@
     <t>Dimitri Drone</t>
   </si>
   <si>
-    <t>Liz Hedgcock</t>
-  </si>
-  <si>
     <t>Eric Winthrop</t>
   </si>
   <si>
@@ -320,6 +317,9 @@
   </si>
   <si>
     <t>LOB</t>
+  </si>
+  <si>
+    <t>Blaise Brunda</t>
   </si>
 </sst>
 </file>
@@ -724,19 +724,19 @@
   <dimension ref="A1:AC4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>65</v>
@@ -748,18 +748,18 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>51</v>
       </c>
       <c r="B2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" t="s">
         <v>72</v>
       </c>
-      <c r="C2" t="s">
-        <v>73</v>
-      </c>
       <c r="D2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
@@ -768,7 +768,7 @@
       <c r="AB2" s="3"/>
       <c r="AC2" s="3"/>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -779,21 +779,21 @@
         <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B4" t="s">
         <v>70</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="D4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -809,16 +809,16 @@
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -834,24 +834,24 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -867,36 +867,36 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="21" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="29.88671875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.33203125" customWidth="1"/>
-    <col min="27" max="27" width="11.44140625" customWidth="1"/>
-    <col min="29" max="29" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.28515625" customWidth="1"/>
+    <col min="27" max="27" width="11.42578125" customWidth="1"/>
+    <col min="29" max="29" width="21.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -991,7 +991,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -1002,7 +1002,7 @@
         <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" t="s">
         <v>32</v>
@@ -1032,7 +1032,7 @@
         <v>37</v>
       </c>
       <c r="N2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O2" s="3" t="s">
         <v>38</v>
@@ -1086,7 +1086,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -1094,10 +1094,10 @@
         <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E3" t="s">
         <v>32</v>
@@ -1181,7 +1181,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -1189,10 +1189,10 @@
         <v>31</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E4" t="s">
         <v>32</v>
@@ -1213,7 +1213,7 @@
         <v>33</v>
       </c>
       <c r="K4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L4" t="s">
         <v>36</v>
@@ -1255,7 +1255,7 @@
         <v>44</v>
       </c>
       <c r="Y4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Z4" t="s">
         <v>46</v>
@@ -1289,17 +1289,17 @@
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>52</v>
       </c>
@@ -1325,7 +1325,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>42</v>
       </c>
@@ -1364,44 +1364,44 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" t="s">
         <v>83</v>
-      </c>
-      <c r="B3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>
